--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242617.8459588384</v>
+        <v>-245586.3747223303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13326380.61574354</v>
+        <v>13327124.03633654</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>246.5560378406987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>138.3254349691659</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>49.7569678412159</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>97.58117330968092</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.26526235734981</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>100.6254937447912</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.38395740401241</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>44.25393884682829</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>178.9908326131594</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>61.75656432199267</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.51974078772325</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.220259035292</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873207</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771013</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>127.0598196324652</v>
+        <v>59.90320919298844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986258</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>150.8030367048783</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>63.7270342464106</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>114.4746605491549</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785987</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>18.26879610203917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>49.96616404348334</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>128.2808324720643</v>
+        <v>114.4746605491547</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>164.9102792253202</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,7 +3244,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668621</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672378</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>107.4483928660059</v>
+        <v>23.94516103140403</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698771</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>381.1967972861383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668791</v>
+        <v>175.5610162827836</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>41.50374997064871</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031542</v>
+        <v>144.3445091190587</v>
       </c>
       <c r="E40" t="n">
-        <v>83.23693702451398</v>
+        <v>142.1629987474155</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078731</v>
+        <v>141.1500841237776</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621087</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.90978769192986</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434008</v>
+        <v>177.0675244593053</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477036</v>
+        <v>213.2110305636081</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333622</v>
+        <v>281.9144876492667</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087698</v>
+        <v>247.8666794246743</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215328</v>
+        <v>282.2520344374373</v>
       </c>
       <c r="X40" t="n">
-        <v>221.548480373979</v>
+        <v>221.4386914898835</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370366</v>
+        <v>214.3136894529411</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261729</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.08582897641433</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.70965412973845</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="C2" t="n">
-        <v>614.0661152341316</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2025452963401</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C4" t="n">
-        <v>104.2025452963401</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
-        <v>104.2025452963401</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>104.2025452963401</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>340.388532134052</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265798</v>
+        <v>340.388532134052</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265798</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782189</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4236418782189</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>381.8627885497561</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>234.9728410518458</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>234.7418026417376</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2579.740033546703</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.978248184794</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.915360841223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.146705571109</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.68094731003</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>688.0860642643761</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>473.7976410825387</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>246.4894537511405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>246.4894537511405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>246.4894537511405</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4894537511405</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208124</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838518</v>
+        <v>1751.093193329806</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858345</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423044</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5291,13 +5291,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5379,16 +5379,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.8404695303064</v>
+        <v>492.7083461157122</v>
       </c>
       <c r="C16" t="n">
-        <v>223.9042866023996</v>
+        <v>323.7721631878053</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X16" t="n">
-        <v>613.6330486738366</v>
+        <v>895.149390089482</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.8404695303064</v>
+        <v>674.3568109459519</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015824</v>
+        <v>877.1197344942174</v>
       </c>
       <c r="C19" t="n">
+        <v>708.1835515663148</v>
+      </c>
+      <c r="D19" t="n">
+        <v>558.066912153979</v>
+      </c>
+      <c r="E19" t="n">
+        <v>410.1538185715859</v>
+      </c>
+      <c r="F19" t="n">
         <v>263.2638710736755</v>
-      </c>
-      <c r="D19" t="n">
-        <v>263.2638710736755</v>
-      </c>
-      <c r="E19" t="n">
-        <v>263.2638710736755</v>
-      </c>
-      <c r="F19" t="n">
-        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S19" t="n">
-        <v>1714.186709160334</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="T19" t="n">
-        <v>1714.186709160334</v>
+        <v>1891.972724441661</v>
       </c>
       <c r="U19" t="n">
-        <v>1425.083842285977</v>
+        <v>1602.869857567305</v>
       </c>
       <c r="V19" t="n">
-        <v>1170.39935408009</v>
+        <v>1348.185369361418</v>
       </c>
       <c r="W19" t="n">
-        <v>880.9821840431299</v>
+        <v>1058.768199324457</v>
       </c>
       <c r="X19" t="n">
-        <v>652.9926331451126</v>
+        <v>1058.768199324457</v>
       </c>
       <c r="Y19" t="n">
-        <v>432.2000540015824</v>
+        <v>1058.768199324457</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5756,40 +5756,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5844,13 +5844,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.1920047000661</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C22" t="n">
-        <v>211.192004700066</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D22" t="n">
-        <v>211.192004700066</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E22" t="n">
-        <v>211.192004700066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>211.1920047000661</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,7 +5908,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608814</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>841.6225995718532</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>613.6330486738359</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.8404695303058</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5993,40 +5993,40 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622688</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423039</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1905.872593333507</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1714.186709160334</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1714.186709160334</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208119</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838514</v>
+        <v>880.9821840431299</v>
       </c>
       <c r="X25" t="n">
-        <v>481.696890485834</v>
+        <v>652.9926331451126</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423039</v>
+        <v>432.2000540015824</v>
       </c>
     </row>
     <row r="26">
@@ -6230,16 +6230,16 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888351</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679677</v>
@@ -6321,7 +6321,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736757</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,7 +6400,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6412,22 +6412,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1545.250526232427</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1256.147659358071</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1001.463171152184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>712.0460011152231</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>484.0564502172058</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>263.2638710736757</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,22 +6464,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442898</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6555,10 +6555,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374724</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1789.767426483168</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.000811052694</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1278.897944178337</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1024.21345597245</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>734.7962859354898</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>506.8067350374724</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.8067350374724</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6789,10 +6789,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
         <v>95.56103444839442</v>
@@ -6856,40 +6856,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.962769867859</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437385</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
         <v>1015.408799357142</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473709</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672754</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152481</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671633</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264242</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865885</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752796</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>274.0087150847348</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>764.7410479284862</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1356.759402180614</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.931638570512</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>388.3979084028292</v>
+        <v>538.7680286442463</v>
       </c>
       <c r="D37" t="n">
-        <v>388.3979084028292</v>
+        <v>388.6513892319106</v>
       </c>
       <c r="E37" t="n">
-        <v>240.5957126831591</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327805</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.644894898599</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769883</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803665</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.909402371531</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028367</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.02953985413</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>899.1508868188355</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>678.4692055380285</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470849</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>892.1898736074438</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5489958917233</v>
+        <v>585.619713569881</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.567350143851</v>
+        <v>1177.638067822009</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.663313543187</v>
+        <v>1799.734031221345</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.539788543381</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>629.5055376920633</v>
+        <v>567.7486935666581</v>
       </c>
       <c r="C40" t="n">
-        <v>629.5055376920633</v>
+        <v>525.825713798326</v>
       </c>
       <c r="D40" t="n">
-        <v>483.5921053656449</v>
+        <v>380.0231793346304</v>
       </c>
       <c r="E40" t="n">
-        <v>399.5143911994687</v>
+        <v>236.4241907008773</v>
       </c>
       <c r="F40" t="n">
-        <v>256.8276507874757</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024333</v>
+        <v>177.0587253013231</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379046</v>
+        <v>440.9157065320489</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859464</v>
+        <v>832.9057788753453</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151928</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431865</v>
+        <v>2046.538456507027</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532977</v>
+        <v>2341.297145603394</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.33732035132</v>
+        <v>2463.238533416991</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.33732035132</v>
+        <v>2399.693293324133</v>
       </c>
       <c r="S40" t="n">
-        <v>2283.370337176168</v>
+        <v>2220.837208011703</v>
       </c>
       <c r="T40" t="n">
-        <v>2067.894761976467</v>
+        <v>2005.472530674725</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.021755377111</v>
+        <v>1720.710421938092</v>
       </c>
       <c r="V40" t="n">
-        <v>1532.540474257142</v>
+        <v>1470.340038680846</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.326511306098</v>
+        <v>1185.236973592525</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.540167493998</v>
+        <v>961.5615276431478</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.9507954363856</v>
+        <v>745.0830534482577</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>921.9831621891585</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>778.395385942737</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118867</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109791</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945541</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506184</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296847</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504286</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900153</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896366</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016489</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799957</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580108</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>267.6551373506189</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296842</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887718</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>894.7529362604299</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277197</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>248.8400772687157</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>404.5002992370412</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>67.5366377670415</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.74439522492605</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>49.74439522492634</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696651</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.2573809594897</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>21.55565338574711</v>
+        <v>88.71226382522391</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>38.96598862656356</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>155.8219150297586</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.55114770987328</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>148.9780249965887</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>38.96598862656401</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>91.26811680410485</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>24.85874610612175</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>59.68863934852609</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031318</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835697</v>
+        <v>121.4721072288254</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.03585060699702</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.2710889780132</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768957</v>
+        <v>136.1830258928002</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935084</v>
+        <v>77.53361284525535</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602538</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1133697.726317262</v>
+        <v>1133628.504771136</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1136943.092742689</v>
+        <v>1137049.764161002</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1153118.141600071</v>
+        <v>1153730.81461515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1153118.141600071</v>
+        <v>1153730.81461515</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>287364.6194524996</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="F2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="G2" t="n">
+        <v>277957.2508208882</v>
+      </c>
+      <c r="H2" t="n">
+        <v>277957.2508208882</v>
+      </c>
+      <c r="I2" t="n">
         <v>277957.2508208881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>277957.2508208881</v>
-      </c>
-      <c r="I2" t="n">
-        <v>277957.2508208882</v>
       </c>
       <c r="J2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="K2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="L2" t="n">
         <v>277957.2508208881</v>
       </c>
       <c r="M2" t="n">
-        <v>282361.0286120504</v>
+        <v>282339.0419914958</v>
       </c>
       <c r="N2" t="n">
-        <v>283172.3702184072</v>
+        <v>283194.3568389619</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485553</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769867</v>
+        <v>3416.771119323097</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668377</v>
+        <v>16659.16697241351</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674909</v>
+        <v>5069.915760662931</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725564</v>
+        <v>6475.2757292224</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591958995</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577668.9342178842</v>
+        <v>-577668.9342178841</v>
       </c>
       <c r="C6" t="n">
-        <v>12298.94499666014</v>
+        <v>12298.94499666023</v>
       </c>
       <c r="D6" t="n">
-        <v>12298.94499666017</v>
+        <v>12298.94499666031</v>
       </c>
       <c r="E6" t="n">
-        <v>-567423.2894233239</v>
+        <v>-567490.4849135496</v>
       </c>
       <c r="F6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798566</v>
       </c>
       <c r="G6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.929079857</v>
       </c>
       <c r="H6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798569</v>
       </c>
       <c r="I6" t="n">
-        <v>159954.1245700827</v>
+        <v>159886.9290798568</v>
       </c>
       <c r="J6" t="n">
-        <v>-16469.09462251034</v>
+        <v>-16536.29011273605</v>
       </c>
       <c r="K6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798569</v>
       </c>
       <c r="L6" t="n">
-        <v>159954.1245700826</v>
+        <v>159886.9290798565</v>
       </c>
       <c r="M6" t="n">
-        <v>-136670.2686743527</v>
+        <v>-136666.8262316269</v>
       </c>
       <c r="N6" t="n">
-        <v>172185.4065550951</v>
+        <v>171983.4272790432</v>
       </c>
       <c r="O6" t="n">
-        <v>148924.0573021485</v>
+        <v>154338.3120539644</v>
       </c>
       <c r="P6" t="n">
-        <v>171751.9956988323</v>
+        <v>170997.4790263779</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="3">
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962333</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698155</v>
+        <v>20.82395871551689</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,16 +26987,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230878</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>118.7168539303089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>216.357606651517</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27427,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>95.66408018171535</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>188.9418250269101</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.4685793061308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>281.3048763274705</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>67.05000524255676</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>111.9169499949669</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>234.7933374076356</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>154.6917560356651</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>136.1454511924346</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>102.4893963537451</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058173</v>
+        <v>4.270963899153675</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467057</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -33041,10 +33041,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33275,13 +33275,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>319.853612748867</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33968,7 +33968,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33986,16 +33986,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>211.8965745749373</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>302.8877650506832</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>187.8760176396499</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>225.4828684302377</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M20" t="n">
         <v>988.434649323059</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36361,7 +36361,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>800.2926980400157</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36610,7 +36610,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>647.6020634880873</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
@@ -36689,10 +36689,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>956.8021346499524</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36923,13 +36923,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>794.4766961512961</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806161006</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>182.012173774508</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475636</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>524.1185202629889</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
         <v>625.7775560664393</v>
@@ -37558,7 +37558,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404112</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>69.3003301304929</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.9410971257187</v>
+        <v>84.05088600981419</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792639</v>
+        <v>266.5222032633594</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394362</v>
+        <v>395.9495680235317</v>
       </c>
       <c r="M40" t="n">
-        <v>427.625409403401</v>
+        <v>427.7351982874965</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359742</v>
+        <v>423.1556768200697</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756941</v>
+        <v>375.0007184597897</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081941</v>
+        <v>297.7360495922896</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.063330119538</v>
+        <v>123.1731190036335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>49.32163785977568</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>82.88662398579324</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
